--- a/assets/files/submission/metabobank/MetaboBank_GC-FID-MS_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_GC-FID-MS_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36615" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="272">
   <si>
     <t>Study Title</t>
   </si>
@@ -431,508 +431,511 @@
     <t>Post extraction;Derivatization</t>
   </si>
   <si>
+    <t>The overall title of the study. This field can only have one value.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A short paragraph describing the study as free-text. This tag can only have one value. The text should clearly explain what you did in your experiment - this will help the curation team to check and process your submission.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A term describing the type of each experimental factor.</t>
+  </si>
+  <si>
+    <t>The experiment design types which are applicable to this study. These terms should come from controlled terms.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A user-defined name for each experimental factor studied by the experiment. These experimental factors represent the variables within the investigation (e.g. growth condition, genotype, organism part). The actual values of these variables will be listed in the SDRF file, in "Ffactor value[&lt;factor name&gt;]" columns.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The organization affiliation for each person associated with the study.</t>
+  </si>
+  <si>
+    <t>The role(s) performed by each person. Only “submitter” role is permitted.</t>
+  </si>
+  <si>
+    <t>The last name of each submitter. Enter last names of submitters in each column.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The first name of each submitter. Enter first names of submitters in each column.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Fields without line boxes can have multiple values in corresponding columns.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Readme</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Correlation-based Deconvolution (CorrDec) to generate high quality MS2 spectra from data independent acquisition in multi-sample studies (Chemical standards assay)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data-independent acquisition mass spectrometry (DIA-MS) is essential for information-rich spectral annotations in untargeted metabolomics. However, the acquired MS2 spectra are highly complex, posing significant annotation challenges. We have developed a correlation-based deconvolution (CorrDec) method that uses ion abundance correlations in multi-sample studies using DIA-MS as an update of our MS-DIAL software. CorrDec is based on the assumption that peak intensities of precursor and fragment ions correlate across samples, and exploits this quantitative information to deconvolute complex DIA spectra. CorrDec clearly improved deconvolution of the original MS-DIAL deconvolution method (MS2Dec) in a dilution series of chemical standards and a 224-sample urinary metabolomics study. The primary advantage of CorrDec over MS2Dec is the ability to discriminate co-eluting low-abundance compounds. CorrDec requires the measurement of multiple samples to successfully deconvolute DIA spectra, and our randomized assessment demonstrated that CorrDec can contribute to studies with as few as 10 unique samples. The presented methodology improves compound annotation and identification in multi-sample studies and will be useful for applications in large cohort studies.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dose response design</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>Mishima</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tarou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fuji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saburo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rakuju</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sonoko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The PubMed IDs of the publication(s) associated with this study (where available).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A Digital Object Identifier (DOI) for each publication (where available). When PubMed ID and DOI are available, use PubMed ID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The names of the protocols used.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A free-text description of the protocol. This text is included in a single tab-delimited field.</t>
+  </si>
+  <si>
+    <t>A semicolon-delimited list of parameter names.</t>
+  </si>
+  <si>
+    <t>The protocol hardware is the instrument that was use to capture the sample. If multiple instruments are used, they should be separated by (;)</t>
+  </si>
+  <si>
+    <t>The software used by the protocol.</t>
+  </si>
+  <si>
+    <t>The type of the protocol.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The study types which are applicable to this study. These terms should come from controlled terms.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The experiment types which are applicable to this study. These terms should come from controlled terms.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Readme</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample attributes. Use BioSample attributes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reference to Sample collection protocol.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A unique identifier from a particular source. Use a sample name of BioSample in most cases.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A unique identifier from a particular sample. Use a sample name of BioSample in most cases.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reference to Extraction protocol.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This column describes how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If the sample has been subjected to chemical modification prior to injection.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A unique identifier from a particular extract. Use a sample name of BioSample in most cases.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reference to Chromatography protocol.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manufacturer, model number and dimensions.</t>
+  </si>
+  <si>
+    <t>A unique identifier from a particular labeled extract. Use a sample name of BioSample in most cases.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you used a chemical or biochemical marker in the sample such as a radioactive isotope of fluorescent dye which is bound to a material in order to make it detectable in an analytical instrument then enter it here.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reference to Mass spectrometry protocol.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The range used in the assay.</t>
+  </si>
+  <si>
+    <t>Ion source of the instrument where applicable.</t>
+  </si>
+  <si>
+    <t>The analyser/detector of the mass fragments generated during the assay.</t>
+  </si>
+  <si>
+    <t>‘positive’, ‘negative’ or 'alternating'</t>
+  </si>
+  <si>
+    <t>Add the full name of the instrument you used for the MS study in this assay, including the model number.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A unique identifier from a particular assay name. Use a sample name of BioSample in most cases. Technical replicates are differentiated by same sample names, different assay names and technical replicate comments.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Technical replicates such as 1, 2 and 3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is where you should enter the raw (unprocessed) MS data files. Please add the filename in the cell.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data processing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If your data has been processed into one of the open-source raw data formats e.g. mzML, nmrML, then add them here.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Metabolite identification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The factor values for an experiment are the values of the variables under investigation. For example, an experiment studying the effect of different temparature (heat stress) on a cell culture would have “temparature” as an experimental variable with “Unit” column to indicate the unit.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decorative_physalis_leaves</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Person Email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAGE-TAB Version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[MetaboBank accession]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version number of MAGE-TAB.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAGE-TAB Version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accession number issed by Metabobank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[Processed Data File md5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[Raw Data File md5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[Metabolite Assignment File md5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[maf_value_unit]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[Raw Data File md5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[Processed Data File md5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[maf_value_unit]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enter md5 hash value of Raw Data File here.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD5 hash value of Processed Data File here.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enter MD5 hash value of Comment[Metabolite Assignment File here.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Metabolite Assignment File</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Value unit usiing for the experimental data in Metabolite Assignment File. (e.g. "peak area", "pico mole" etc.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[Submission type]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Study (IDF) fields</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Study (IDF) fields</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Assay (SDRF) columns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># ORANGE fields are mandatory. Your submission will fail if any mandatory fields are not completed. If information is unavailable for any mandatory field, please enter 'not collected',  'not applicable' or 'missing' as appropriate.</t>
+  </si>
+  <si>
+    <t># BLUE fields are optional. Leave optional fields empty if no information is available.</t>
+  </si>
+  <si>
+    <t># CAUTION: Be aware that Excel may automatically apply formatting to your data. In particular, take care with dates, incrementing autofills and special characters like / or -. Doublecheck that your text file is accurate before uploading to MetaboBank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># TO MAKE A SUBMISSION: </t>
+  </si>
+  <si>
+    <t>#    1. Complete this template table.</t>
+  </si>
+  <si>
+    <t>#    2. Send the file to metabobank@ddbj.nig.ac.jp by email attachment.</t>
+  </si>
+  <si>
+    <t># If you have any questions, please contact us at https://www.ddbj.nig.ac.jp/contact-ddbj-e.html</t>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Optional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Last updated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Revision history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Initial version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[Related study]</t>
+  </si>
+  <si>
+    <t>Comment[Contributor]</t>
+  </si>
+  <si>
+    <t>Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extract Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter Value[Post extraction]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>metabolite target analysis</t>
+  </si>
+  <si>
+    <t>metabolite profiling</t>
+  </si>
+  <si>
+    <t>metabolomics</t>
+  </si>
+  <si>
+    <t>metabolic profiling</t>
+  </si>
+  <si>
+    <t>metabonomics</t>
+  </si>
+  <si>
+    <t>amino acids</t>
+  </si>
+  <si>
+    <t>organic acids</t>
+  </si>
+  <si>
+    <t>dose response design</t>
+  </si>
+  <si>
+    <t>data-dependent acquisition</t>
+  </si>
+  <si>
+    <t>data-independent acquisition</t>
+  </si>
+  <si>
+    <t>liquid chromatography-mass spectrometry</t>
+  </si>
+  <si>
+    <t>SWATH MS</t>
+  </si>
+  <si>
+    <t>ultra-performance liquid chromatography-mass spectrometry</t>
+  </si>
+  <si>
+    <t>submitter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># See HELP tabs to view definition, or see https://www.ddbj.nig.ac.jp/metabobank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uneditable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[Contributor]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment[Related study]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Related study database ID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BioProject ID.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name of each contributer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter Value[Detector]</t>
+  </si>
+  <si>
+    <t>Add the full name of the instrument you used for the chromatographic part of this assay, including the manufacturer and model number as reported in manufacturer’s brochures, user manuals, or on their website.</t>
+  </si>
+  <si>
+    <t>Manufacturer and model number.</t>
+  </si>
+  <si>
+    <t>Type or phase of column used.</t>
+  </si>
+  <si>
+    <t>Type of guard column used.</t>
+  </si>
+  <si>
+    <t>GC-FID-MS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter Value[Temperature]</t>
+  </si>
+  <si>
+    <t>Unit[]</t>
+  </si>
+  <si>
+    <t>Add the full name of the ditector you used for the study in this assay, including the model number.</t>
+  </si>
+  <si>
+    <t># Submission type: MS Chromatography - GC-FID (GC-FID-MS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># This is a submission template for 'MS Chromatography - GC-FID (GC-FID-MS), version 1.0' metadata to the MetaboBank database (https://www.ddbj.nig.ac.jp/metabobank).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Submission type: MS Chromatography - GC-FID (GC-FID-MS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chromatography instrument;Autosampler model;Column model;Column type;Guard column;Detector;Temperature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Scan polarity;Scan m/z range;Instrument;Ion source;Mass analyzer</t>
-  </si>
-  <si>
-    <t>The overall title of the study. This field can only have one value.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A short paragraph describing the study as free-text. This tag can only have one value. The text should clearly explain what you did in your experiment - this will help the curation team to check and process your submission.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A term describing the type of each experimental factor.</t>
-  </si>
-  <si>
-    <t>The experiment design types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A user-defined name for each experimental factor studied by the experiment. These experimental factors represent the variables within the investigation (e.g. growth condition, genotype, organism part). The actual values of these variables will be listed in the SDRF file, in "Ffactor value[&lt;factor name&gt;]" columns.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The organization affiliation for each person associated with the study.</t>
-  </si>
-  <si>
-    <t>The role(s) performed by each person. Only “submitter” role is permitted.</t>
-  </si>
-  <si>
-    <t>The last name of each submitter. Enter last names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The first name of each submitter. Enter first names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># Fields without line boxes can have multiple values in corresponding columns.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Correlation-based Deconvolution (CorrDec) to generate high quality MS2 spectra from data independent acquisition in multi-sample studies (Chemical standards assay)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data-independent acquisition mass spectrometry (DIA-MS) is essential for information-rich spectral annotations in untargeted metabolomics. However, the acquired MS2 spectra are highly complex, posing significant annotation challenges. We have developed a correlation-based deconvolution (CorrDec) method that uses ion abundance correlations in multi-sample studies using DIA-MS as an update of our MS-DIAL software. CorrDec is based on the assumption that peak intensities of precursor and fragment ions correlate across samples, and exploits this quantitative information to deconvolute complex DIA spectra. CorrDec clearly improved deconvolution of the original MS-DIAL deconvolution method (MS2Dec) in a dilution series of chemical standards and a 224-sample urinary metabolomics study. The primary advantage of CorrDec over MS2Dec is the ability to discriminate co-eluting low-abundance compounds. CorrDec requires the measurement of multiple samples to successfully deconvolute DIA spectra, and our randomized assessment demonstrated that CorrDec can contribute to studies with as few as 10 unique samples. The presented methodology improves compound annotation and identification in multi-sample studies and will be useful for applications in large cohort studies.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dose response design</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>Mishima</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tarou</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fuji</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saburo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rakuju</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sonoko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The PubMed IDs of the publication(s) associated with this study (where available).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A Digital Object Identifier (DOI) for each publication (where available). When PubMed ID and DOI are available, use PubMed ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The names of the protocols used.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A free-text description of the protocol. This text is included in a single tab-delimited field.</t>
-  </si>
-  <si>
-    <t>A semicolon-delimited list of parameter names.</t>
-  </si>
-  <si>
-    <t>The protocol hardware is the instrument that was use to capture the sample. If multiple instruments are used, they should be separated by (;)</t>
-  </si>
-  <si>
-    <t>The software used by the protocol.</t>
-  </si>
-  <si>
-    <t>The type of the protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The study types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The experiment types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample attributes. Use BioSample attributes.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Sample collection protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular source. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular sample. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Extraction protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This column describes how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If the sample has been subjected to chemical modification prior to injection.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular extract. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Chromatography protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Manufacturer, model number and dimensions.</t>
-  </si>
-  <si>
-    <t>A unique identifier from a particular labeled extract. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you used a chemical or biochemical marker in the sample such as a radioactive isotope of fluorescent dye which is bound to a material in order to make it detectable in an analytical instrument then enter it here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Mass spectrometry protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The range used in the assay.</t>
-  </si>
-  <si>
-    <t>Ion source of the instrument where applicable.</t>
-  </si>
-  <si>
-    <t>The analyser/detector of the mass fragments generated during the assay.</t>
-  </si>
-  <si>
-    <t>‘positive’, ‘negative’ or 'alternating'</t>
-  </si>
-  <si>
-    <t>Add the full name of the instrument you used for the MS study in this assay, including the model number.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular assay name. Use a sample name of BioSample in most cases. Technical replicates are differentiated by same sample names, different assay names and technical replicate comments.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Technical replicates such as 1, 2 and 3.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is where you should enter the raw (unprocessed) MS data files. Please add the filename in the cell.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data processing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If your data has been processed into one of the open-source raw data formats e.g. mzML, nmrML, then add them here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite identification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The factor values for an experiment are the values of the variables under investigation. For example, an experiment studying the effect of different temparature (heat stress) on a cell culture would have “temparature” as an experimental variable with “Unit” column to indicate the unit.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decorative_physalis_leaves</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Person Email</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAGE-TAB Version</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[MetaboBank accession]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Version number of MAGE-TAB.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAGE-TAB Version</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Accession number issed by Metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Processed Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Raw Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Metabolite Assignment File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[maf_value_unit]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Raw Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Processed Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[maf_value_unit]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter md5 hash value of Raw Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MD5 hash value of Processed Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter MD5 hash value of Comment[Metabolite Assignment File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite Assignment File</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Value unit usiing for the experimental data in Metabolite Assignment File. (e.g. "peak area", "pico mole" etc.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Submission type]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># Study (IDF) fields</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># Study (IDF) fields</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># Assay (SDRF) columns</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># ORANGE fields are mandatory. Your submission will fail if any mandatory fields are not completed. If information is unavailable for any mandatory field, please enter 'not collected',  'not applicable' or 'missing' as appropriate.</t>
-  </si>
-  <si>
-    <t># BLUE fields are optional. Leave optional fields empty if no information is available.</t>
-  </si>
-  <si>
-    <t># CAUTION: Be aware that Excel may automatically apply formatting to your data. In particular, take care with dates, incrementing autofills and special characters like / or -. Doublecheck that your text file is accurate before uploading to MetaboBank.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># TO MAKE A SUBMISSION: </t>
-  </si>
-  <si>
-    <t>#    1. Complete this template table.</t>
-  </si>
-  <si>
-    <t>#    2. Send the file to metabobank@ddbj.nig.ac.jp by email attachment.</t>
-  </si>
-  <si>
-    <t># If you have any questions, please contact us at https://www.ddbj.nig.ac.jp/contact-ddbj-e.html</t>
-  </si>
-  <si>
-    <t>Required</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Optional</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Last updated</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Revision history</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Initial version</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Update definitions to MB-IDF-version=2022-02-18 and MB-SDRF-version=2022-02-18.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Related study]</t>
-  </si>
-  <si>
-    <t>Comment[Contributor]</t>
-  </si>
-  <si>
-    <t>Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Extract Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Parameter Value[Post extraction]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>metabolite target analysis</t>
-  </si>
-  <si>
-    <t>metabolite profiling</t>
-  </si>
-  <si>
-    <t>metabolomics</t>
-  </si>
-  <si>
-    <t>metabolic profiling</t>
-  </si>
-  <si>
-    <t>metabonomics</t>
-  </si>
-  <si>
-    <t>amino acids</t>
-  </si>
-  <si>
-    <t>organic acids</t>
-  </si>
-  <si>
-    <t>dose response design</t>
-  </si>
-  <si>
-    <t>data-dependent acquisition</t>
-  </si>
-  <si>
-    <t>data-independent acquisition</t>
-  </si>
-  <si>
-    <t>liquid chromatography-mass spectrometry</t>
-  </si>
-  <si>
-    <t>SWATH MS</t>
-  </si>
-  <si>
-    <t>ultra-performance liquid chromatography-mass spectrometry</t>
-  </si>
-  <si>
-    <t>submitter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># See HELP tabs to view definition, or see https://www.ddbj.nig.ac.jp/metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Uneditable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Contributor]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Related study]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Related study database ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BioProject ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name of each contributer.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Parameter Value[Detector]</t>
-  </si>
-  <si>
-    <t>Add the full name of the instrument you used for the chromatographic part of this assay, including the manufacturer and model number as reported in manufacturer’s brochures, user manuals, or on their website.</t>
-  </si>
-  <si>
-    <t>Manufacturer and model number.</t>
-  </si>
-  <si>
-    <t>Type or phase of column used.</t>
-  </si>
-  <si>
-    <t>Type of guard column used.</t>
-  </si>
-  <si>
-    <t>GC-FID-MS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chromatography instrument;Autosampler model;Column model;Column type;Guard column;Detector;Temperature;Unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Parameter Value[Temperature]</t>
-  </si>
-  <si>
-    <t>Unit[]</t>
-  </si>
-  <si>
-    <t>Add the full name of the ditector you used for the study in this assay, including the model number.</t>
-  </si>
-  <si>
-    <t># Submission type: MS Chromatography - GC-FID (GC-FID-MS)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># This is a submission template for 'MS Chromatography - GC-FID (GC-FID-MS), version 1.0' metadata to the MetaboBank database (https://www.ddbj.nig.ac.jp/metabobank).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># Submission type: MS Chromatography - GC-FID (GC-FID-MS)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Update definitions to MB-IDF-version=2022-06-29 and MB-SDRF-version=2022-02-18.</t>
+  </si>
+  <si>
+    <t>matrix-assisted laser desorption-ionisation mass spectrometry</t>
   </si>
 </sst>
 </file>
@@ -1448,342 +1451,342 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="126.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:2" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16" s="7">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="B19" s="7">
         <v>44509</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="B20" s="7">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
   </sheetData>
@@ -1802,61 +1805,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="38.5" style="10"/>
+    <col min="1" max="16384" width="38.44140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" s="10">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>2</v>
       </c>
@@ -1867,7 +1870,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
@@ -1878,15 +1881,15 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -1897,7 +1900,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>6</v>
       </c>
@@ -1908,7 +1911,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>7</v>
       </c>
@@ -1919,9 +1922,9 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1930,7 +1933,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
@@ -1941,15 +1944,15 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>10</v>
       </c>
@@ -1960,7 +1963,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>11</v>
       </c>
@@ -1971,10 +1974,10 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>12</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +2034,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>15</v>
       </c>
@@ -2040,15 +2043,15 @@
         <v>133</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>134</v>
+        <v>269</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>16</v>
       </c>
@@ -2059,7 +2062,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>17</v>
       </c>
@@ -2070,35 +2073,35 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>23</v>
       </c>
@@ -2109,46 +2112,48 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -2182,7 +2187,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>ADMIN!$C$2:$C$26</xm:f>
+            <xm:f>ADMIN!$C$2:$C$27</xm:f>
           </x14:formula1>
           <xm:sqref>B40:G40</xm:sqref>
         </x14:dataValidation>
@@ -2203,334 +2208,334 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.625" style="10"/>
+    <col min="1" max="1" width="48.6640625" style="10"/>
     <col min="2" max="2" width="34" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="48.625" style="10"/>
+    <col min="3" max="3" width="34.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>198</v>
-      </c>
       <c r="B6" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -2553,60 +2558,60 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="35" style="3" customWidth="1"/>
-    <col min="18" max="18" width="23.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="37.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="45" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="24.875" style="3"/>
+    <col min="36" max="36" width="28.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="24.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>28</v>
       </c>
@@ -2650,13 +2655,13 @@
         <v>39</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R4" s="21" t="s">
         <v>40</v>
@@ -2692,7 +2697,7 @@
         <v>49</v>
       </c>
       <c r="AC4" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD4" s="21" t="s">
         <v>30</v>
@@ -2701,7 +2706,7 @@
         <v>50</v>
       </c>
       <c r="AF4" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG4" s="21" t="s">
         <v>30</v>
@@ -2710,16 +2715,16 @@
         <v>51</v>
       </c>
       <c r="AI4" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
         <v>204</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>205</v>
       </c>
       <c r="AK4" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -2770,7 +2775,7 @@
       <c r="AJ5" s="11"/>
       <c r="AK5" s="11"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -2821,7 +2826,7 @@
       <c r="AJ6" s="11"/>
       <c r="AK6" s="11"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -2872,7 +2877,7 @@
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17"/>
@@ -2911,7 +2916,7 @@
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="17"/>
@@ -2950,7 +2955,7 @@
       <c r="AJ9" s="11"/>
       <c r="AK9" s="11"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="17"/>
@@ -2989,7 +2994,7 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
@@ -3028,7 +3033,7 @@
       <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="17"/>
@@ -3067,7 +3072,7 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="17"/>
@@ -3106,7 +3111,7 @@
       <c r="AJ13" s="11"/>
       <c r="AK13" s="11"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="17"/>
@@ -3145,7 +3150,7 @@
       <c r="AJ14" s="11"/>
       <c r="AK14" s="11"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="17"/>
@@ -3184,7 +3189,7 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3223,7 +3228,7 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="17"/>
@@ -3262,7 +3267,7 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="17"/>
@@ -3301,7 +3306,7 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3340,7 +3345,7 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3379,7 +3384,7 @@
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3418,7 +3423,7 @@
       <c r="AJ21" s="11"/>
       <c r="AK21" s="11"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3457,7 +3462,7 @@
       <c r="AJ22" s="11"/>
       <c r="AK22" s="11"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3496,7 +3501,7 @@
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3535,7 +3540,7 @@
       <c r="AJ24" s="11"/>
       <c r="AK24" s="11"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3574,7 +3579,7 @@
       <c r="AJ25" s="11"/>
       <c r="AK25" s="11"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3613,7 +3618,7 @@
       <c r="AJ26" s="11"/>
       <c r="AK26" s="11"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="17"/>
@@ -3652,7 +3657,7 @@
       <c r="AJ27" s="11"/>
       <c r="AK27" s="11"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3691,7 +3696,7 @@
       <c r="AJ28" s="11"/>
       <c r="AK28" s="11"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3730,7 +3735,7 @@
       <c r="AJ29" s="11"/>
       <c r="AK29" s="11"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="17"/>
@@ -3769,7 +3774,7 @@
       <c r="AJ30" s="11"/>
       <c r="AK30" s="11"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="17"/>
@@ -3808,7 +3813,7 @@
       <c r="AJ31" s="11"/>
       <c r="AK31" s="11"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="17"/>
@@ -3847,7 +3852,7 @@
       <c r="AJ32" s="11"/>
       <c r="AK32" s="11"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="17"/>
@@ -3886,7 +3891,7 @@
       <c r="AJ33" s="11"/>
       <c r="AK33" s="11"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3925,7 +3930,7 @@
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
@@ -3964,7 +3969,7 @@
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="17"/>
@@ -4003,7 +4008,7 @@
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -4042,7 +4047,7 @@
       <c r="AJ37" s="11"/>
       <c r="AK37" s="11"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -4081,7 +4086,7 @@
       <c r="AJ38" s="11"/>
       <c r="AK38" s="11"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -4120,7 +4125,7 @@
       <c r="AJ39" s="11"/>
       <c r="AK39" s="11"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -4159,7 +4164,7 @@
       <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="17"/>
@@ -4198,7 +4203,7 @@
       <c r="AJ41" s="11"/>
       <c r="AK41" s="11"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -4237,7 +4242,7 @@
       <c r="AJ42" s="11"/>
       <c r="AK42" s="11"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
@@ -4276,7 +4281,7 @@
       <c r="AJ43" s="11"/>
       <c r="AK43" s="11"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="17"/>
@@ -4315,7 +4320,7 @@
       <c r="AJ44" s="11"/>
       <c r="AK44" s="11"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="17"/>
@@ -4354,7 +4359,7 @@
       <c r="AJ45" s="11"/>
       <c r="AK45" s="11"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="17"/>
@@ -4393,7 +4398,7 @@
       <c r="AJ46" s="11"/>
       <c r="AK46" s="11"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="17"/>
@@ -4432,7 +4437,7 @@
       <c r="AJ47" s="11"/>
       <c r="AK47" s="11"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="17"/>
@@ -4471,7 +4476,7 @@
       <c r="AJ48" s="11"/>
       <c r="AK48" s="11"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="17"/>
@@ -4510,7 +4515,7 @@
       <c r="AJ49" s="11"/>
       <c r="AK49" s="11"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="17"/>
@@ -4549,7 +4554,7 @@
       <c r="AJ50" s="11"/>
       <c r="AK50" s="11"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="17"/>
@@ -4588,7 +4593,7 @@
       <c r="AJ51" s="11"/>
       <c r="AK51" s="11"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="17"/>
@@ -4627,7 +4632,7 @@
       <c r="AJ52" s="11"/>
       <c r="AK52" s="11"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="17"/>
@@ -4666,7 +4671,7 @@
       <c r="AJ53" s="11"/>
       <c r="AK53" s="11"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="17"/>
@@ -4705,7 +4710,7 @@
       <c r="AJ54" s="11"/>
       <c r="AK54" s="11"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="17"/>
@@ -4744,7 +4749,7 @@
       <c r="AJ55" s="11"/>
       <c r="AK55" s="11"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="17"/>
@@ -4783,7 +4788,7 @@
       <c r="AJ56" s="11"/>
       <c r="AK56" s="11"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="17"/>
@@ -4822,7 +4827,7 @@
       <c r="AJ57" s="11"/>
       <c r="AK57" s="11"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="17"/>
@@ -4861,7 +4866,7 @@
       <c r="AJ58" s="11"/>
       <c r="AK58" s="11"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="17"/>
@@ -4900,7 +4905,7 @@
       <c r="AJ59" s="11"/>
       <c r="AK59" s="11"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="17"/>
@@ -4939,7 +4944,7 @@
       <c r="AJ60" s="11"/>
       <c r="AK60" s="11"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="17"/>
@@ -4978,7 +4983,7 @@
       <c r="AJ61" s="11"/>
       <c r="AK61" s="11"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="17"/>
@@ -5017,7 +5022,7 @@
       <c r="AJ62" s="11"/>
       <c r="AK62" s="11"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="17"/>
@@ -5056,7 +5061,7 @@
       <c r="AJ63" s="11"/>
       <c r="AK63" s="11"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="17"/>
@@ -5095,7 +5100,7 @@
       <c r="AJ64" s="11"/>
       <c r="AK64" s="11"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="17"/>
@@ -5134,7 +5139,7 @@
       <c r="AJ65" s="11"/>
       <c r="AK65" s="11"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="18"/>
@@ -5173,7 +5178,7 @@
       <c r="AJ66" s="11"/>
       <c r="AK66" s="11"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="18"/>
@@ -5212,7 +5217,7 @@
       <c r="AJ67" s="11"/>
       <c r="AK67" s="11"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="18"/>
@@ -5251,7 +5256,7 @@
       <c r="AJ68" s="11"/>
       <c r="AK68" s="11"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="18"/>
@@ -5290,7 +5295,7 @@
       <c r="AJ69" s="11"/>
       <c r="AK69" s="11"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="18"/>
@@ -5329,7 +5334,7 @@
       <c r="AJ70" s="11"/>
       <c r="AK70" s="11"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="18"/>
@@ -5368,7 +5373,7 @@
       <c r="AJ71" s="11"/>
       <c r="AK71" s="11"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="18"/>
@@ -5407,7 +5412,7 @@
       <c r="AJ72" s="11"/>
       <c r="AK72" s="11"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="18"/>
@@ -5446,7 +5451,7 @@
       <c r="AJ73" s="11"/>
       <c r="AK73" s="11"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="18"/>
@@ -5485,7 +5490,7 @@
       <c r="AJ74" s="11"/>
       <c r="AK74" s="11"/>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="18"/>
@@ -5524,7 +5529,7 @@
       <c r="AJ75" s="11"/>
       <c r="AK75" s="11"/>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="18"/>
@@ -5563,7 +5568,7 @@
       <c r="AJ76" s="11"/>
       <c r="AK76" s="11"/>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="18"/>
@@ -5602,7 +5607,7 @@
       <c r="AJ77" s="11"/>
       <c r="AK77" s="11"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="18"/>
@@ -5641,7 +5646,7 @@
       <c r="AJ78" s="11"/>
       <c r="AK78" s="11"/>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="18"/>
@@ -5680,7 +5685,7 @@
       <c r="AJ79" s="11"/>
       <c r="AK79" s="11"/>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="18"/>
@@ -5719,7 +5724,7 @@
       <c r="AJ80" s="11"/>
       <c r="AK80" s="11"/>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="18"/>
@@ -5758,7 +5763,7 @@
       <c r="AJ81" s="11"/>
       <c r="AK81" s="11"/>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="18"/>
@@ -5797,7 +5802,7 @@
       <c r="AJ82" s="11"/>
       <c r="AK82" s="11"/>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="18"/>
@@ -5836,7 +5841,7 @@
       <c r="AJ83" s="11"/>
       <c r="AK83" s="11"/>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="18"/>
@@ -5875,7 +5880,7 @@
       <c r="AJ84" s="11"/>
       <c r="AK84" s="11"/>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="18"/>
@@ -5914,7 +5919,7 @@
       <c r="AJ85" s="11"/>
       <c r="AK85" s="11"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="18"/>
@@ -5953,7 +5958,7 @@
       <c r="AJ86" s="11"/>
       <c r="AK86" s="11"/>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="18"/>
@@ -5992,7 +5997,7 @@
       <c r="AJ87" s="11"/>
       <c r="AK87" s="11"/>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="18"/>
@@ -6031,7 +6036,7 @@
       <c r="AJ88" s="11"/>
       <c r="AK88" s="11"/>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="18"/>
@@ -6070,7 +6075,7 @@
       <c r="AJ89" s="11"/>
       <c r="AK89" s="11"/>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="18"/>
@@ -6109,7 +6114,7 @@
       <c r="AJ90" s="11"/>
       <c r="AK90" s="11"/>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="18"/>
@@ -6148,7 +6153,7 @@
       <c r="AJ91" s="11"/>
       <c r="AK91" s="11"/>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="18"/>
@@ -6187,7 +6192,7 @@
       <c r="AJ92" s="11"/>
       <c r="AK92" s="11"/>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="18"/>
@@ -6226,7 +6231,7 @@
       <c r="AJ93" s="11"/>
       <c r="AK93" s="11"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="18"/>
@@ -6265,7 +6270,7 @@
       <c r="AJ94" s="11"/>
       <c r="AK94" s="11"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="18"/>
@@ -6304,7 +6309,7 @@
       <c r="AJ95" s="11"/>
       <c r="AK95" s="11"/>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="18"/>
@@ -6343,7 +6348,7 @@
       <c r="AJ96" s="11"/>
       <c r="AK96" s="11"/>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="18"/>
@@ -6382,7 +6387,7 @@
       <c r="AJ97" s="11"/>
       <c r="AK97" s="11"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="18"/>
@@ -6421,7 +6426,7 @@
       <c r="AJ98" s="11"/>
       <c r="AK98" s="11"/>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="18"/>
@@ -6460,7 +6465,7 @@
       <c r="AJ99" s="11"/>
       <c r="AK99" s="11"/>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="18"/>
@@ -6499,7 +6504,7 @@
       <c r="AJ100" s="11"/>
       <c r="AK100" s="11"/>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="18"/>
@@ -6538,7 +6543,7 @@
       <c r="AJ101" s="11"/>
       <c r="AK101" s="11"/>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="18"/>
@@ -6577,7 +6582,7 @@
       <c r="AJ102" s="11"/>
       <c r="AK102" s="11"/>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="18"/>
@@ -6616,7 +6621,7 @@
       <c r="AJ103" s="11"/>
       <c r="AK103" s="11"/>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="18"/>
@@ -6655,7 +6660,7 @@
       <c r="AJ104" s="11"/>
       <c r="AK104" s="11"/>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="18"/>
@@ -6714,506 +6719,506 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="10"/>
-    <col min="3" max="4" width="37.875" style="28"/>
-    <col min="5" max="16384" width="37.875" style="10"/>
+    <col min="1" max="1" width="48.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="10"/>
+    <col min="3" max="4" width="37.88671875" style="28"/>
+    <col min="5" max="16384" width="37.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="30"/>
       <c r="D51" s="30"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
     </row>
@@ -7229,18 +7234,18 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="3"/>
+    <col min="3" max="3" width="96.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>59</v>
       </c>
@@ -7251,7 +7256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
@@ -7262,7 +7267,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -7270,10 +7275,10 @@
         <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
@@ -7281,12 +7286,12 @@
         <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>69</v>
@@ -7295,9 +7300,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>71</v>
@@ -7306,9 +7311,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>73</v>
@@ -7317,9 +7322,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>75</v>
@@ -7328,9 +7333,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>77</v>
@@ -7339,7 +7344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -7350,7 +7355,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -7361,18 +7366,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -7380,10 +7385,10 @@
         <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>72</v>
       </c>
@@ -7394,7 +7399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
@@ -7402,10 +7407,10 @@
         <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>76</v>
       </c>
@@ -7416,7 +7421,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>78</v>
       </c>
@@ -7424,10 +7429,10 @@
         <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -7435,10 +7440,10 @@
         <v>96</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
@@ -7446,10 +7451,10 @@
         <v>98</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -7457,10 +7462,10 @@
         <v>100</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>88</v>
       </c>
@@ -7468,10 +7473,10 @@
         <v>124</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>91</v>
       </c>
@@ -7479,103 +7484,106 @@
         <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>87</v>
       </c>

--- a/assets/files/submission/metabobank/MetaboBank_GC-FID-MS_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_GC-FID-MS_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="273">
   <si>
     <t>Study Title</t>
   </si>
@@ -598,14 +598,6 @@
     <t>Manufacturer, model number and dimensions.</t>
   </si>
   <si>
-    <t>A unique identifier from a particular labeled extract. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you used a chemical or biochemical marker in the sample such as a radioactive isotope of fluorescent dye which is bound to a material in order to make it detectable in an analytical instrument then enter it here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Reference to Mass spectrometry protocol.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -936,6 +928,15 @@
   </si>
   <si>
     <t>matrix-assisted laser desorption-ionisation mass spectrometry</t>
+  </si>
+  <si>
+    <t>Labeled Extract Name was made optional.</t>
+  </si>
+  <si>
+    <t>A unique identifier from a particular extract chemically labeled by isotopes. Optional for non-labeled samples.</t>
+  </si>
+  <si>
+    <t>When samples are chemically labeled by isotopes (chemical isotope labeling), describe isotopes in the Label column and isotope-labeled compounds in the Comment[isotope_labeled_compound] column.</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1452,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1463,52 +1464,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,19 +1518,19 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,7 +1538,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B16" s="7">
         <v>44741</v>
@@ -1549,13 +1550,13 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B19" s="7">
         <v>44509</v>
@@ -1563,15 +1564,19 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" s="7">
         <v>44741</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44802</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1816,13 +1821,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -1836,7 +1841,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="10">
         <v>1.1000000000000001</v>
@@ -1844,7 +1849,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,7 +1929,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1949,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2043,10 +2048,10 @@
         <v>133</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -2127,10 +2132,10 @@
     </row>
     <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2140,12 +2145,12 @@
     </row>
     <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2220,13 +2225,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -2247,19 +2252,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -2362,7 +2367,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>139</v>
@@ -2376,13 +2381,13 @@
         <v>140</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2503,7 +2508,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,23 +2516,23 @@
         <v>25</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2554,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2600,12 +2605,12 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2655,15 +2660,15 @@
         <v>39</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="R4" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="R4" s="24" t="s">
         <v>40</v>
       </c>
       <c r="S4" s="24" t="s">
@@ -2697,7 +2702,7 @@
         <v>49</v>
       </c>
       <c r="AC4" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AD4" s="21" t="s">
         <v>30</v>
@@ -2706,7 +2711,7 @@
         <v>50</v>
       </c>
       <c r="AF4" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG4" s="21" t="s">
         <v>30</v>
@@ -2715,10 +2720,10 @@
         <v>51</v>
       </c>
       <c r="AI4" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AK4" s="21" t="s">
         <v>52</v>
@@ -6715,8 +6720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6729,12 +6734,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6742,7 +6747,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>167</v>
@@ -6760,7 +6765,7 @@
         <v>170</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" s="30"/>
     </row>
@@ -6806,7 +6811,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>173</v>
@@ -6826,7 +6831,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>175</v>
@@ -6849,7 +6854,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -6859,7 +6864,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -6879,7 +6884,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -6889,41 +6894,41 @@
         <v>39</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -6933,7 +6938,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -6943,7 +6948,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -6953,7 +6958,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -6963,7 +6968,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -6973,7 +6978,7 @@
         <v>44</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -6983,7 +6988,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -6993,7 +6998,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -7003,7 +7008,7 @@
         <v>47</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -7013,7 +7018,7 @@
         <v>48</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -7023,17 +7028,17 @@
         <v>49</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -7043,7 +7048,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
@@ -7053,17 +7058,17 @@
         <v>50</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -7073,37 +7078,37 @@
         <v>30</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
@@ -7113,7 +7118,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -7275,7 +7280,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7286,12 +7291,12 @@
         <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>69</v>
@@ -7302,7 +7307,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>71</v>
@@ -7313,7 +7318,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>73</v>
@@ -7324,7 +7329,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>75</v>
@@ -7335,7 +7340,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>77</v>
@@ -7371,7 +7376,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>106</v>
@@ -7385,7 +7390,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7407,7 +7412,7 @@
         <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7484,12 +7489,12 @@
         <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>126</v>
@@ -7500,7 +7505,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>128</v>
@@ -7530,7 +7535,7 @@
         <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/files/submission/metabobank/MetaboBank_GC-FID-MS_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_GC-FID-MS_metadata.xlsx
@@ -4,18 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="11124"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
     <sheet name="MB_Study_IDF" sheetId="2" r:id="rId2"/>
-    <sheet name="MB_Study_IDF HELP" sheetId="14" r:id="rId3"/>
-    <sheet name="MB_Assay_SDRF" sheetId="3" r:id="rId4"/>
-    <sheet name="MB_Assay_SDRF HELP" sheetId="15" r:id="rId5"/>
-    <sheet name="ADMIN" sheetId="10" r:id="rId6"/>
+    <sheet name="MB_Assay_SDRF" sheetId="3" r:id="rId3"/>
+    <sheet name="ADMIN" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ADMIN!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ADMIN!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="187">
   <si>
     <t>Study Title</t>
   </si>
@@ -429,255 +427,24 @@
   </si>
   <si>
     <t>Post extraction;Derivatization</t>
-  </si>
-  <si>
-    <t>The overall title of the study. This field can only have one value.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A short paragraph describing the study as free-text. This tag can only have one value. The text should clearly explain what you did in your experiment - this will help the curation team to check and process your submission.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A term describing the type of each experimental factor.</t>
-  </si>
-  <si>
-    <t>The experiment design types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A user-defined name for each experimental factor studied by the experiment. These experimental factors represent the variables within the investigation (e.g. growth condition, genotype, organism part). The actual values of these variables will be listed in the SDRF file, in "Ffactor value[&lt;factor name&gt;]" columns.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The organization affiliation for each person associated with the study.</t>
-  </si>
-  <si>
-    <t>The role(s) performed by each person. Only “submitter” role is permitted.</t>
-  </si>
-  <si>
-    <t>The last name of each submitter. Enter last names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The first name of each submitter. Enter first names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t># Fields without line boxes can have multiple values in corresponding columns.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Correlation-based Deconvolution (CorrDec) to generate high quality MS2 spectra from data independent acquisition in multi-sample studies (Chemical standards assay)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data-independent acquisition mass spectrometry (DIA-MS) is essential for information-rich spectral annotations in untargeted metabolomics. However, the acquired MS2 spectra are highly complex, posing significant annotation challenges. We have developed a correlation-based deconvolution (CorrDec) method that uses ion abundance correlations in multi-sample studies using DIA-MS as an update of our MS-DIAL software. CorrDec is based on the assumption that peak intensities of precursor and fragment ions correlate across samples, and exploits this quantitative information to deconvolute complex DIA spectra. CorrDec clearly improved deconvolution of the original MS-DIAL deconvolution method (MS2Dec) in a dilution series of chemical standards and a 224-sample urinary metabolomics study. The primary advantage of CorrDec over MS2Dec is the ability to discriminate co-eluting low-abundance compounds. CorrDec requires the measurement of multiple samples to successfully deconvolute DIA spectra, and our randomized assessment demonstrated that CorrDec can contribute to studies with as few as 10 unique samples. The presented methodology improves compound annotation and identification in multi-sample studies and will be useful for applications in large cohort studies.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dose response design</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>Mishima</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tarou</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fuji</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saburo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rakuju</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sonoko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The PubMed IDs of the publication(s) associated with this study (where available).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A Digital Object Identifier (DOI) for each publication (where available). When PubMed ID and DOI are available, use PubMed ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The names of the protocols used.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A free-text description of the protocol. This text is included in a single tab-delimited field.</t>
-  </si>
-  <si>
-    <t>A semicolon-delimited list of parameter names.</t>
-  </si>
-  <si>
-    <t>The protocol hardware is the instrument that was use to capture the sample. If multiple instruments are used, they should be separated by (;)</t>
-  </si>
-  <si>
-    <t>The software used by the protocol.</t>
-  </si>
-  <si>
-    <t>The type of the protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The study types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The experiment types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample attributes. Use BioSample attributes.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Sample collection protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular source. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular sample. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Extraction protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This column describes how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If the sample has been subjected to chemical modification prior to injection.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular extract. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Chromatography protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Manufacturer, model number and dimensions.</t>
-  </si>
-  <si>
-    <t>Reference to Mass spectrometry protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The range used in the assay.</t>
-  </si>
-  <si>
-    <t>Ion source of the instrument where applicable.</t>
-  </si>
-  <si>
-    <t>The analyser/detector of the mass fragments generated during the assay.</t>
-  </si>
-  <si>
-    <t>‘positive’, ‘negative’ or 'alternating'</t>
-  </si>
-  <si>
-    <t>Add the full name of the instrument you used for the MS study in this assay, including the model number.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular assay name. Use a sample name of BioSample in most cases. Technical replicates are differentiated by same sample names, different assay names and technical replicate comments.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Technical replicates such as 1, 2 and 3.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is where you should enter the raw (unprocessed) MS data files. Please add the filename in the cell.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data processing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If your data has been processed into one of the open-source raw data formats e.g. mzML, nmrML, then add them here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite identification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The factor values for an experiment are the values of the variables under investigation. For example, an experiment studying the effect of different temparature (heat stress) on a cell culture would have “temparature” as an experimental variable with “Unit” column to indicate the unit.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decorative_physalis_leaves</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Person Email</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Comment[MetaboBank accession]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>MAGE-TAB Version</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[MetaboBank accession]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Version number of MAGE-TAB.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAGE-TAB Version</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Accession number issed by Metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Processed Data File md5]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -694,38 +461,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[Raw Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Processed Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[maf_value_unit]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter md5 hash value of Raw Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MD5 hash value of Processed Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter MD5 hash value of Comment[Metabolite Assignment File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite Assignment File</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Value unit usiing for the experimental data in Metabolite Assignment File. (e.g. "peak area", "pico mole" etc.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Submission type]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -734,10 +469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># Study (IDF) fields</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Assay (SDRF) columns</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -783,28 +514,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[Related study]</t>
-  </si>
-  <si>
-    <t>Comment[Contributor]</t>
-  </si>
-  <si>
-    <t>Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Extract Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Parameter Value[Post extraction]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>metabolite target analysis</t>
   </si>
   <si>
@@ -848,10 +557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># See HELP tabs to view definition, or see https://www.ddbj.nig.ac.jp/metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Uneditable</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -864,31 +569,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Related study database ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BioProject ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name of each contributer.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Parameter Value[Detector]</t>
-  </si>
-  <si>
-    <t>Add the full name of the instrument you used for the chromatographic part of this assay, including the manufacturer and model number as reported in manufacturer’s brochures, user manuals, or on their website.</t>
-  </si>
-  <si>
-    <t>Manufacturer and model number.</t>
-  </si>
-  <si>
-    <t>Type or phase of column used.</t>
-  </si>
-  <si>
-    <t>Type of guard column used.</t>
   </si>
   <si>
     <t>GC-FID-MS</t>
@@ -901,9 +582,6 @@
     <t>Unit[]</t>
   </si>
   <si>
-    <t>Add the full name of the ditector you used for the study in this assay, including the model number.</t>
-  </si>
-  <si>
     <t># Submission type: MS Chromatography - GC-FID (GC-FID-MS)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -933,10 +611,8 @@
     <t>Labeled Extract Name was made optional.</t>
   </si>
   <si>
-    <t>A unique identifier from a particular extract chemically labeled by isotopes. Optional for non-labeled samples.</t>
-  </si>
-  <si>
-    <t>When samples are chemically labeled by isotopes (chemical isotope labeling), describe isotopes in the Label column and isotope-labeled compounds in the Comment[isotope_labeled_compound] column.</t>
+    <t># To view definition, see https://www.ddbj.nig.ac.jp/metabobank/metadata-e.html</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1066,7 +742,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1097,28 +773,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1451,9 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1464,52 +1120,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,19 +1174,19 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,10 +1194,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="B16" s="7">
-        <v>44741</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1550,13 +1206,13 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="B19" s="7">
         <v>44509</v>
@@ -1564,7 +1220,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="B20" s="7">
         <v>44741</v>
@@ -1572,7 +1228,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="B21" s="7">
         <v>44802</v>
@@ -1821,13 +1477,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -1836,12 +1492,12 @@
     </row>
     <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="B5" s="10">
         <v>1.1000000000000001</v>
@@ -1849,7 +1505,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1929,7 +1585,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1954,11 +1610,11 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="11"/>
@@ -1969,7 +1625,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="11"/>
@@ -1983,7 +1639,7 @@
       <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2040,7 +1696,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="11"/>
@@ -2048,16 +1704,16 @@
         <v>133</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>266</v>
+        <v>181</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="11"/>
@@ -2068,7 +1724,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="11"/>
@@ -2132,25 +1788,25 @@
     </row>
     <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>250</v>
+      <c r="A43" s="24" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>249</v>
+      <c r="A44" s="24" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,360 +1863,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.6640625" style="10"/>
-    <col min="2" max="2" width="34" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="48.6640625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="5" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK105"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2605,12 +1911,12 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2632,10 +1938,10 @@
       <c r="E4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -2644,65 +1950,65 @@
       <c r="I4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="R4" s="24" t="s">
+      <c r="O4" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="R4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="23" t="s">
         <v>41</v>
       </c>
       <c r="T4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="V4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="24" t="s">
+      <c r="X4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="24" t="s">
+      <c r="Y4" s="23" t="s">
         <v>46</v>
       </c>
       <c r="Z4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="24" t="s">
+      <c r="AA4" s="23" t="s">
         <v>48</v>
       </c>
       <c r="AB4" s="21" t="s">
         <v>49</v>
       </c>
       <c r="AC4" s="21" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="AD4" s="21" t="s">
         <v>30</v>
@@ -2711,7 +2017,7 @@
         <v>50</v>
       </c>
       <c r="AF4" s="21" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="AG4" s="21" t="s">
         <v>30</v>
@@ -2720,10 +2026,10 @@
         <v>51</v>
       </c>
       <c r="AI4" s="21" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="AK4" s="21" t="s">
         <v>52</v>
@@ -6716,525 +6022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="10"/>
-    <col min="3" max="4" width="37.88671875" style="28"/>
-    <col min="5" max="16384" width="37.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -7280,7 +6068,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7291,12 +6079,12 @@
         <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>69</v>
@@ -7307,7 +6095,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>71</v>
@@ -7318,7 +6106,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>73</v>
@@ -7329,7 +6117,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>75</v>
@@ -7340,7 +6128,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>77</v>
@@ -7376,7 +6164,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>106</v>
@@ -7390,7 +6178,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7412,7 +6200,7 @@
         <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>269</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7489,12 +6277,12 @@
         <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>126</v>
@@ -7505,7 +6293,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>128</v>
@@ -7535,7 +6323,7 @@
         <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/files/submission/metabobank/MetaboBank_GC-FID-MS_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_GC-FID-MS_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="11124"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26220" windowHeight="11124"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -576,12 +576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Parameter Value[Temperature]</t>
-  </si>
-  <si>
-    <t>Unit[]</t>
-  </si>
-  <si>
     <t># Submission type: MS Chromatography - GC-FID (GC-FID-MS)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -612,6 +606,14 @@
   </si>
   <si>
     <t># To view definition, see https://www.ddbj.nig.ac.jp/metabobank/metadata-e.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter Value[Temperature]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit[temperature]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1109,7 +1111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1120,12 +1124,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +1144,7 @@
     </row>
     <row r="5" spans="1:2" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +1201,7 @@
         <v>154</v>
       </c>
       <c r="B16" s="7">
-        <v>44848</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +1224,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20" s="7">
         <v>44741</v>
@@ -1228,7 +1232,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="7">
         <v>44802</v>
@@ -1483,7 +1487,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -1704,10 +1708,10 @@
         <v>133</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -1865,9 +1869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK105"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1916,7 +1918,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -1969,10 +1971,10 @@
         <v>174</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="R4" s="23" t="s">
         <v>40</v>
@@ -6200,7 +6202,7 @@
         <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
